--- a/experiment/output/results/VLCS/RSC/DG/0.xlsx
+++ b/experiment/output/results/VLCS/RSC/DG/0.xlsx
@@ -488,23 +488,23 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>250129_05-19-22_resnet50_EVE</t>
+          <t>250207_18-59-12_resnet50_GENIE</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>99.205</v>
+        <v>99.55800000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>98.94</v>
+        <v>99.117</v>
       </c>
       <c r="F2" t="n">
-        <v>97.792</v>
+        <v>95.93600000000001</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H2" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -520,7 +520,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>250206_16-18-00_resnet50_GENIE</t>
+          <t>250211_07-42-56_resnet50_GENIE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>

--- a/experiment/output/results/VLCS/RSC/DG/0.xlsx
+++ b/experiment/output/results/VLCS/RSC/DG/0.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,49 +488,23 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>250207_18-59-12_resnet50_GENIE</t>
+          <t>250211_10-28-28_resnet50_GENIE</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>99.55800000000001</v>
+        <v>99.38200000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>99.117</v>
+        <v>99.38200000000001</v>
       </c>
       <c r="F2" t="n">
-        <v>95.93600000000001</v>
+        <v>97.703</v>
       </c>
       <c r="G2" t="n">
         <v>2</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>RSC</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>250211_07-42-56_resnet50_GENIE</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
